--- a/changes/545-mags.xlsx
+++ b/changes/545-mags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6752BC0-28FF-480F-BD0E-77C7CA6F393C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5BED2A-BA7C-4A8C-97C5-86B953955B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>old</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>RPK 16 95R</t>
+  </si>
+  <si>
+    <t>ammo weight: 0.3703766</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
   <dimension ref="A1:AE999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -474,7 +477,9 @@
         <v>2</v>
       </c>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1281,7 +1286,6 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
     </row>

--- a/changes/545-mags.xlsx
+++ b/changes/545-mags.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9122145-1074-481C-9ABE-9F23A308ADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95EAAD5-FCCB-453A-9BD9-218319BCC8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>new</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>izhmash_ak74_5.45x39_6l20_30r_mag</t>
+  </si>
+  <si>
+    <t>izhmash_ak74_mag_bottomplate</t>
+  </si>
+  <si>
+    <t>Izhmash AK74 Mag Bottom Plate</t>
+  </si>
+  <si>
+    <t>legal_arsenal_5_rnd_545_223_ak_mag_extension</t>
+  </si>
+  <si>
+    <t>Legal Arsenal 5rd 5.45/.223 AK Magazine Extension</t>
   </si>
 </sst>
 </file>
@@ -419,7 +431,7 @@
   <dimension ref="A1:R999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -576,7 +588,7 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>-8.6</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1">
@@ -596,10 +608,10 @@
         <v>23</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="D5" s="2">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -616,7 +628,7 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>-8.1999999999999993</v>
+        <v>-8.1</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
@@ -641,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -658,7 +670,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>-8.6</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -940,10 +952,18 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.02</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -955,29 +975,41 @@
       <c r="M14" s="2"/>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="O14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.08</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <v>750</v>
+      </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.6</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
